--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
     <sheet name="putSysDisk" sheetId="31" r:id="rId2"/>
-    <sheet name="getDataDiskList" sheetId="32" r:id="rId3"/>
-    <sheet name="putDataDisk" sheetId="33" r:id="rId4"/>
+    <sheet name="searchSysDisk" sheetId="34" r:id="rId3"/>
+    <sheet name="getDataDiskList" sheetId="32" r:id="rId4"/>
+    <sheet name="putDataDisk" sheetId="33" r:id="rId5"/>
+    <sheet name="searchDataDisk" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
   <si>
     <t>test_num</t>
   </si>
@@ -234,6 +236,16 @@
 }</t>
   </si>
   <si>
+    <t>搜索系统盘</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>搜索系统盘-缺少token</t>
+  </si>
+  <si>
     <t>查看云硬盘列表-数统盘</t>
   </si>
   <si>
@@ -350,6 +362,12 @@
     "name":"DataDesIs1Char",
     "description":"A"
 }</t>
+  </si>
+  <si>
+    <t>搜索数据盘</t>
+  </si>
+  <si>
+    <t>搜索数据盘-缺少token</t>
   </si>
 </sst>
 </file>
@@ -357,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -378,7 +396,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,9 +463,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,44 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,14 +501,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -490,29 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -536,19 +554,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,37 +698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,115 +728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,11 +763,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,26 +804,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,23 +831,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -860,133 +878,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1363,8 +1381,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1742,6 +1760,82 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1777,10 +1871,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1812,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F14"/>
@@ -1853,10 +1947,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -1873,10 +1967,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
         <v>214024</v>
@@ -1893,10 +1987,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1913,10 +2007,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1933,10 +2027,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1953,10 +2047,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1973,10 +2067,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2">
         <v>1001</v>
@@ -1993,10 +2087,10 @@
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2033,10 +2127,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -2053,10 +2147,10 @@
         <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2073,10 +2167,10 @@
         <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2093,10 +2187,10 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2106,6 +2200,82 @@
       </c>
       <c r="F14" s="2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="getDataDiskList" sheetId="32" r:id="rId4"/>
     <sheet name="putDataDisk" sheetId="33" r:id="rId5"/>
     <sheet name="searchDataDisk" sheetId="35" r:id="rId6"/>
+    <sheet name="attachDataDisk" sheetId="36" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
   <si>
     <t>test_num</t>
   </si>
@@ -369,14 +370,108 @@
   <si>
     <t>搜索数据盘-缺少token</t>
   </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>加载数据盘-volume为空</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"",
+    "action":"attach",    
+    "path":"",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>加载数据盘-Path为空</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
+    "action":"attach",    
+    "path":"",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>加载数据盘-Volume不存在</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c1111111-1111-1111-1111-111111111111",
+    "action":"attach",    
+    "path":"/mnt/￥%……￥%……",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>云硬盘挂载路径不合法</t>
+  </si>
+  <si>
+    <t>加载数据盘-Path为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
+    "action":"attach",    
+    "path":"/mnt/￥%……￥%……",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>加载数据盘-Path&gt;128</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
+    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/test19",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>云硬盘挂载路径过长</t>
+  </si>
+  <si>
+    <t>加载数据盘-Path=128</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
+    "action":"attach",
+    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/hKK",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>加载数据盘-同一路径重复加载-Path=128</t>
+  </si>
+  <si>
+    <t>{
+    "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
+    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/hKK",
+    "instance":[
+        "ins-557e6e063a1349ab95945b9c1939745a"  ]
+}</t>
+  </si>
+  <si>
+    <t>同一挂载路径不能加载多块云硬盘</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -395,18 +490,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -418,7 +506,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,60 +535,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,15 +557,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -532,12 +597,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -554,187 +649,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,21 +859,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -793,22 +873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,7 +907,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,7 +916,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,151 +935,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2213,8 +2308,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2282,4 +2377,197 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="94.5" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="2">
+        <v>214017</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2">
+        <v>214017</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2">
+        <v>214026</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="135" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="121.5" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2">
+        <v>214021</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="putDataDisk" sheetId="33" r:id="rId5"/>
     <sheet name="searchDataDisk" sheetId="35" r:id="rId6"/>
     <sheet name="attachDataDisk" sheetId="36" r:id="rId7"/>
+    <sheet name="snap4DataDisk" sheetId="37" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="38" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
   <si>
     <t>test_num</t>
   </si>
@@ -464,15 +466,150 @@
   <si>
     <t>同一挂载路径不能加载多块云硬盘</t>
   </si>
+  <si>
+    <t>新建快照-缺少token</t>
+  </si>
+  <si>
+    <t>新建快照-name为空</t>
+  </si>
+  <si>
+    <t>{
+    "name":"",
+    "description":"SnapNameIsNull",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>{'name': ['该字段不能为空。']}</t>
+  </si>
+  <si>
+    <t>新建快照-volume为空</t>
+  </si>
+  <si>
+    <t>{
+    "name":"testSnap",
+    "description":"volumeIsNull",
+    "volume":""
+}</t>
+  </si>
+  <si>
+    <t>{'volume': ['Must be a valid UUID.']}</t>
+  </si>
+  <si>
+    <t>新建快照-Des为空</t>
+  </si>
+  <si>
+    <t>{
+    "name":"SnapDesIsNull",
+    "description":"",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>新建快照-name&gt;32</t>
+  </si>
+  <si>
+    <t>{
+    "name":"YYDSnapNameOver32CharsYYDSnapNameOver32CharsYYDSnapNameOver32Chars",
+    "description":"新建快照-name&gt;32",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'name': ['请确保这个字段不能超过 32 个字符。']}</t>
+  </si>
+  <si>
+    <t>新建快照-name为特殊字符</t>
+  </si>
+  <si>
+    <t>{
+    "name":"SpeCharforSnap……&amp;*&amp;s",
+    "description":"新建快照-name为特殊字符",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>快照名称只能输入数字、字母、-、_, 只允许以英文开头</t>
+  </si>
+  <si>
+    <t>新建快照-name为中文</t>
+  </si>
+  <si>
+    <t>{
+    "name":"SpeCharforSnap……&amp;*&amp;s",
+    "description":"新建快照-name为中文",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>新建快照-name以数字开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"1234567890a",
+    "description":"新建快照-name以数字开头",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>新建快照-name以下划线_开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"_1234567890a",
+    "description":"新建快照-name以下划线_开头",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>新建快照-name以短横线-开头</t>
+  </si>
+  <si>
+    <t>{
+    "name":"-1234567890a",
+    "description":"新建快照-name以短横线-开头",
+    "volume":"deb69c4a-c212-4d3d-9aeb-806f9941e1b3"
+}</t>
+  </si>
+  <si>
+    <t>新建快照-Des&gt;100</t>
+  </si>
+  <si>
+    <t>{
+    "name":"snapDesOver100",    "description":"DesOver100CharDesOver100CharDesOver100CharDesOver100CharDesOver100CharDesOver100CharDesOver100CharDesOver100CharDesOver100Char",   
+ "volume":""
+}</t>
+  </si>
+  <si>
+    <t>{'description': ['请确保这个字段不能超过 100 个字符。']}</t>
+  </si>
+  <si>
+    <t>新建快照-name=32_Des=100</t>
+  </si>
+  <si>
+    <t>{
+    "name":"aaaaabbbbbcccccdddddeeeeefffff23",    "description":"DesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100Chars100Des100", 
+  "volume":""}</t>
+  </si>
+  <si>
+    <t>新建快照-重名快照_name=32_Des=100</t>
+  </si>
+  <si>
+    <t>{
+    "name":"aaaaabbbbbcccccdddddeeeeefffff23",    "description":"DesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100CharsDesIs100Chars100Des100",    "volume":""}</t>
+  </si>
+  <si>
+    <t>快照名称已经存在</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -490,16 +627,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,6 +648,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -526,18 +663,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -549,19 +687,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,7 +727,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -597,15 +735,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,7 +744,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,9 +764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,19 +786,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,163 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,21 +996,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -884,6 +1006,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,30 +1064,21 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -944,27 +1092,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,133 +1110,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1552,8 +1689,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1931,7 +2068,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2006,7 +2143,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2384,8 +2521,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2570,4 +2707,312 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="2">
+        <v>214020</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2">
+        <v>214005</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -14,15 +14,16 @@
     <sheet name="putDataDisk" sheetId="33" r:id="rId5"/>
     <sheet name="searchDataDisk" sheetId="35" r:id="rId6"/>
     <sheet name="attachDataDisk" sheetId="36" r:id="rId7"/>
-    <sheet name="snap4DataDisk" sheetId="37" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId9"/>
+    <sheet name="detachDataDisk" sheetId="39" r:id="rId8"/>
+    <sheet name="snap4DataDisk" sheetId="37" r:id="rId9"/>
+    <sheet name="extendDataDisk" sheetId="38" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
   <si>
     <t>test_num</t>
   </si>
@@ -467,6 +468,45 @@
     <t>同一挂载路径不能加载多块云硬盘</t>
   </si>
   <si>
+    <t>加载数据盘-缺少token</t>
+  </si>
+  <si>
+    <t>卸载数据盘-缺少token</t>
+  </si>
+  <si>
+    <t>卸载数据盘-instance为空</t>
+  </si>
+  <si>
+    <t>{
+    "instance":[
+        ""
+    ],
+    "action":"detach",
+    "volume":"bde97a16-23f7-467d-b4ef-e1465389bde5"
+}</t>
+  </si>
+  <si>
+    <t>卸载数据盘-volume为空</t>
+  </si>
+  <si>
+    <t>{
+    "instance":[
+        "ins-4b28fa544833425ebcff74ad3c1fb618"
+    ],
+    "action":"detach",
+    "volume":""
+}</t>
+  </si>
+  <si>
+    <t>卸载数据盘-成功</t>
+  </si>
+  <si>
+    <t>卸载数据盘-重复卸载-失败</t>
+  </si>
+  <si>
+    <t>非已加载状态下云硬盘不可卸载</t>
+  </si>
+  <si>
     <t>新建快照-缺少token</t>
   </si>
   <si>
@@ -600,6 +640,66 @@
   </si>
   <si>
     <t>快照名称已经存在</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size为负整数</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"-3",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
+  </si>
+  <si>
+    <t>云硬盘扩容容量不得小于当前云硬盘大小</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size为0</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"0",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size为小数</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"0.36",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size为字符串</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"abc",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size为超大值</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"99999999999999999",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
+  </si>
+  <si>
+    <t>存储池空间不足</t>
+  </si>
+  <si>
+    <t>数据盘扩容-add_size比当前值大1</t>
+  </si>
+  <si>
+    <t>{
+    "add_size":"2",
+    "id":"70b9fd1d-acb5-4fba-b71c-7b71ad3a14c9"
+}</t>
   </si>
 </sst>
 </file>
@@ -607,8 +707,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -628,7 +728,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,16 +755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,25 +778,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +818,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -734,9 +833,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,8 +848,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,8 +863,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -786,37 +886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +952,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,25 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +1000,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,61 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1110,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,45 +1173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1092,16 +1181,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,16 +1210,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,115 +1228,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1684,6 +1784,167 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2">
+        <v>214016</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="2">
+        <v>214016</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="54" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="2">
+        <v>217002</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="54" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2521,8 +2782,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2688,7 +2949,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>52</v>
@@ -2712,10 +2973,144 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="62.125" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="94.5" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="94.5" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2">
+        <v>214028</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2750,7 +3145,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>52</v>
@@ -2770,16 +3165,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -2787,16 +3182,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
@@ -2804,15 +3199,14 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>2</v>
       </c>
@@ -2822,16 +3216,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -2842,16 +3236,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -2862,16 +3256,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -2882,16 +3276,16 @@
         <v>35</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -2902,16 +3296,16 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -2922,16 +3316,16 @@
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2">
         <v>214020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -2942,16 +3336,16 @@
         <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -2962,15 +3356,14 @@
         <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="2"/>
       <c r="F13" s="2">
         <v>2</v>
       </c>
@@ -2980,16 +3373,16 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D14" s="2">
         <v>214005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>
@@ -2999,20 +3392,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -707,9 +707,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -728,35 +728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +744,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -786,32 +766,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,16 +795,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,16 +840,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,19 +916,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,109 +1048,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1096,6 +1096,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1110,16 +1154,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1148,60 +1192,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,133 +1210,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1789,7 +1789,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2782,7 +2782,7 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2975,8 +2975,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -3073,7 +3073,6 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>2</v>
       </c>
@@ -3109,8 +3108,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <t>{
     "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
     "action":"attach",
-    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/hKK",
+    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/KKK",
     "instance":[
         "ins-557e6e063a1349ab95945b9c1939745a"  ]
 }</t>
@@ -459,7 +459,7 @@
   <si>
     <t>{
     "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
-    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/hKK",
+    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/KKK",
     "instance":[
         "ins-557e6e063a1349ab95945b9c1939745a"  ]
 }</t>
@@ -707,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -727,21 +727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,16 +736,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,6 +766,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -781,7 +788,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -797,36 +804,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,7 +819,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -850,15 +858,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +886,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,25 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,7 +952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +988,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,43 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,31 +1048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,21 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1124,8 +1109,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,11 +1154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,16 +1183,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,133 +1210,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1789,8 +1789,8 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -2782,8 +2782,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <t>{
     "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
     "action":"attach",
-    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/KKK",
+    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/AAA",
     "instance":[
         "ins-557e6e063a1349ab95945b9c1939745a"  ]
 }</t>
@@ -459,7 +459,7 @@
   <si>
     <t>{
     "volume":"c7735672-0232-42a2-9838-bb0e8cfe4a7b",
-    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/KKK",
+    "action":"attach",    "path":"/mnt/test1/test2/test3/test4/test5/test6/test7/test8/test9/test10/test11/test12/test13/test13/test14/test15/test16/test17/test18/AAA",
     "instance":[
         "ins-557e6e063a1349ab95945b9c1939745a"  ]
 }</t>
@@ -707,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -727,9 +727,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,14 +743,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -766,68 +764,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,7 +794,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,6 +802,30 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -864,8 +840,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,42 +886,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -929,6 +893,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,13 +916,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +946,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,55 +1000,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1036,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,35 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1139,32 +1110,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1187,8 +1137,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,10 +1198,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,133 +1210,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2782,8 +2782,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
   <si>
     <t>test_num</t>
   </si>
@@ -177,6 +177,9 @@
 }</t>
   </si>
   <si>
+    <t>系统盘名称过长</t>
+  </si>
+  <si>
     <t>008</t>
   </si>
   <si>
@@ -321,6 +324,9 @@
     "name":"DatanameIsOver32DatanameIsOve32DatanameOver32",
     "description":"编辑数据盘-name超过32个字符"
 }</t>
+  </si>
+  <si>
+    <t>数据盘名称过长</t>
   </si>
   <si>
     <t>编辑数据盘-name等于32个字符</t>
@@ -707,10 +713,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -724,49 +730,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -785,6 +748,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -793,8 +793,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,14 +816,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -824,17 +824,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +847,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -866,6 +865,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,7 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,13 +928,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,79 +982,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,25 +1018,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,37 +1072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1120,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,7 +1144,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,10 +1204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,133 +1216,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1434,7 +1440,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1822,13 +1828,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -1845,16 +1851,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2">
         <v>214016</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1862,16 +1868,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2">
         <v>214016</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1879,10 +1885,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
@@ -1896,10 +1902,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -1913,16 +1919,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2">
         <v>217002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="54" spans="1:4">
@@ -1930,10 +1936,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1950,7 +1956,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2112,10 +2118,10 @@
         <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>1001</v>
+        <v>214023</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2123,13 +2129,13 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2143,7 +2149,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2163,13 +2169,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -2183,13 +2189,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2203,13 +2209,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2223,13 +2229,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2288,10 +2294,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2302,10 +2308,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>1005</v>
@@ -2364,10 +2370,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2405,7 +2411,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2440,10 +2446,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2460,10 +2466,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
         <v>214024</v>
@@ -2480,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2500,10 +2506,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2520,10 +2526,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2540,10 +2546,10 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2560,16 +2566,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2">
-        <v>1001</v>
+        <v>214023</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2577,13 +2583,13 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -2597,7 +2603,7 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2617,13 +2623,13 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -2637,13 +2643,13 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2657,13 +2663,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2677,13 +2683,13 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2742,10 +2748,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2756,10 +2762,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>1005</v>
@@ -2782,8 +2788,8 @@
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2815,13 +2821,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="94.5" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2835,10 +2841,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -2855,16 +2861,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>214017</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
@@ -2872,16 +2878,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2">
         <v>214017</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2892,16 +2898,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2">
         <v>214026</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2912,10 +2918,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2929,16 +2935,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>214021</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2949,10 +2955,10 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>1005</v>
@@ -3008,13 +3014,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3031,10 +3037,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3048,10 +3054,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3065,10 +3071,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3082,16 +3088,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>214028</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3141,13 +3147,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2">
         <v>1005</v>
@@ -3164,16 +3170,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -3181,16 +3187,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
@@ -3198,10 +3204,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3215,16 +3221,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3235,16 +3241,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -3255,16 +3261,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2">
         <v>214020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="12" s="2" customFormat="1" ht="94.5" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -3352,13 +3358,13 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3369,19 +3375,19 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2">
         <v>214005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="158">
   <si>
     <t>test_num</t>
   </si>
@@ -460,7 +460,7 @@
 }</t>
   </si>
   <si>
-    <t>加载数据盘-同一路径重复加载-Path=128</t>
+    <t>加载数据盘-云硬盘已加载</t>
   </si>
   <si>
     <t>{
@@ -469,6 +469,12 @@
     "instance":[
         "ins-557e6e063a1349ab95945b9c1939745a"  ]
 }</t>
+  </si>
+  <si>
+    <t>云硬盘已加载</t>
+  </si>
+  <si>
+    <t>加载数据盘-同一路径重复加载-Path=128</t>
   </si>
   <si>
     <t>同一挂载路径不能加载多块云硬盘</t>
@@ -713,10 +719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -740,9 +746,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -757,14 +769,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,14 +784,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +806,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -824,54 +867,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,7 +904,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,37 +1018,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,19 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,103 +1072,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,39 +1122,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1188,6 +1161,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1198,16 +1195,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,7 +1222,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,124 +1231,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1440,7 +1446,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1831,7 +1837,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -1851,16 +1857,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2">
         <v>214016</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1868,16 +1874,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2">
         <v>214016</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1885,10 +1891,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
@@ -1902,10 +1908,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -1919,16 +1925,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D7" s="2">
         <v>217002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="54" spans="1:4">
@@ -1936,10 +1942,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1956,7 +1962,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2786,10 +2792,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2941,7 +2947,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="2">
-        <v>214021</v>
+        <v>214001</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>101</v>
@@ -2950,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="27" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2958,15 +2964,35 @@
         <v>102</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="2">
+        <v>214021</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="27" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>1005</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -3017,7 +3043,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3037,10 +3063,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3054,10 +3080,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3071,10 +3097,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3088,16 +3114,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="D6" s="2">
         <v>214028</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3150,7 +3176,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3170,16 +3196,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -3187,16 +3213,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
@@ -3204,10 +3230,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3221,16 +3247,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3241,16 +3267,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -3261,16 +3287,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -3281,16 +3307,16 @@
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3301,16 +3327,16 @@
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3321,16 +3347,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D11" s="2">
         <v>214020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -3341,16 +3367,16 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -3361,10 +3387,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3378,16 +3404,16 @@
         <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2">
         <v>214005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="159">
   <si>
     <t>test_num</t>
   </si>
@@ -93,9 +93,10 @@
     <t>编辑系统盘-name为空</t>
   </si>
   <si>
-    <t>{   
+    <t>{
     "name":"",
-    "description":"编辑系统盘-name为空"
+    "description":"编辑系统盘-name为空",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -107,7 +108,8 @@
   <si>
     <t>{   
     "name":"@￥@#%￥#%￥",
-    "description":"编辑系统盘-name为特殊字符"
+    "description":"编辑系统盘-name为特殊字符",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -137,7 +139,8 @@
   <si>
     <t>{   
     "name":"123456",
-    "description":"编辑系统盘-name为数字"
+    "description":"编辑系统盘-name为数字",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -161,7 +164,8 @@
   <si>
     <t>{   
     "name":"-----",
-    "description":"编辑系统盘-name为下划线"
+    "description":"编辑系统盘-name为下划线",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -173,7 +177,8 @@
   <si>
     <t>{   
     "name":"SysnameIsOver32SysnameIsOve32SysnameOver32",
-    "description":"编辑系统盘-name超过32个字符"
+    "description":"编辑系统盘-name超过32个字符",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -188,7 +193,8 @@
   <si>
     <t>{   
     "name":"SysnameIs32SysnameIs32SysnameH32",
-    "description":"编辑系统盘-name等于32个字符"
+    "description":"编辑系统盘-name等于32个字符",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -203,7 +209,8 @@
   <si>
     <t>{   
     "name":"SysDesIsOver100Chars",
-    "description":"DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%"
+    "description":"DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -215,7 +222,8 @@
   <si>
     <t>{   
     "name":"SysDesIs100Chars",
-    "description":"DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%"
+    "description":"DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -227,7 +235,8 @@
   <si>
     <t>{   
     "name":"SysDesIsNull",
-    "description":""
+    "description":"",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -239,7 +248,8 @@
   <si>
     <t>{   
     "name":"SysDesIs1Char",
-    "description":"A"
+    "description":"A",
+    "store_type":1
 }</t>
   </si>
   <si>
@@ -268,7 +278,8 @@
   <si>
     <t>{   
     "name":"",
-    "description":"编辑数据盘-name为空"
+    "description":"编辑数据盘-name为空",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -277,7 +288,8 @@
   <si>
     <t>{   
     "name":"@￥@#%￥#%￥",
-    "description":"编辑数据盘-name为特殊字符"
+    "description":"编辑数据盘-name为特殊字符",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -286,7 +298,8 @@
   <si>
     <t>{   
     "name":"中文名称数据盘",
-    "description":"编辑数据盘-name为中文名称"
+    "description":"编辑数据盘-name为中文名称",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -295,7 +308,8 @@
   <si>
     <t>{   
     "name":"123456",
-    "description":"编辑数据盘-name为数字"
+    "description":"编辑数据盘-name为数字",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -304,7 +318,8 @@
   <si>
     <t>{   
     "name":"______",
-    "description":"编辑数据盘-name为下划线"
+    "description":"编辑数据盘-name为下划线",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -313,7 +328,8 @@
   <si>
     <t>{   
     "name":"-----",
-    "description":"编辑数据盘-name为下划线"
+    "description":"编辑数据盘-name为下划线",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -322,7 +338,8 @@
   <si>
     <t>{   
     "name":"DatanameIsOver32DatanameIsOve32DatanameOver32",
-    "description":"编辑数据盘-name超过32个字符"
+    "description":"编辑数据盘-name超过32个字符",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -334,7 +351,15 @@
   <si>
     <t>{   
     "name":"DatanameIs32DatanameIs32Dataname",
-    "description":"编辑数据盘-name等于32个字符"
+    "description":"编辑数据盘-name等于32个字符",
+    "store_type":0
+}</t>
+  </si>
+  <si>
+    <t>{
+"storage_limit":10,
+"add_size":0,    "project_id":"f9d31e23e30c41b1a42d53ef95c8dec6",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -343,7 +368,8 @@
   <si>
     <t>{   
     "name":"DataDesIsOver100Chars",
-    "description":"DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%"
+    "description":"DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%DesIsOver100Chars！#@@%#%",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -352,7 +378,8 @@
   <si>
     <t>{   
     "name":"DataDesIs100Chars",
-    "description":"DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%"
+    "description":"DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%DesIs100Chars！#@@%#%",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -361,7 +388,8 @@
   <si>
     <t>{   
     "name":"DataDesIsNull",
-    "description":""
+    "description":"",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -370,7 +398,8 @@
   <si>
     <t>{   
     "name":"DataDesIs1Char",
-    "description":"A"
+    "description":"A",
+    "store_type":0
 }</t>
   </si>
   <si>
@@ -719,10 +748,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -740,14 +769,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,6 +800,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,22 +822,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,6 +830,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +852,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,44 +860,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -875,9 +882,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,13 +927,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,55 +1005,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,7 +1029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,37 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,6 +1102,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,21 +1137,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1137,26 +1151,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,17 +1196,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1199,8 +1213,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,133 +1251,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1430,6 +1459,12 @@
     <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F9F88C"/>
+      <color rgb="00F6F5C5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1801,7 +1836,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1834,10 +1869,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -1857,16 +1892,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2">
         <v>214016</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1874,16 +1909,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2">
         <v>214016</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1891,10 +1926,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
@@ -1908,10 +1943,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -1925,16 +1960,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2">
         <v>217002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="54" spans="1:4">
@@ -1942,10 +1977,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1962,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2013,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="5" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2093,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2113,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="94.5" spans="1:6">
+    <row r="8" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2133,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="121.5" spans="1:6">
+    <row r="11" s="2" customFormat="1" ht="135" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="108" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2213,7 +2248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="13" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2233,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="14" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -2416,8 +2451,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2447,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2467,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="4" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="5" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -2527,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="6" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -2547,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="7" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -2567,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="94.5" spans="1:6">
+    <row r="8" s="2" customFormat="1" ht="108" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="9" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -2607,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="10" s="2" customFormat="1" ht="94.5" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -2615,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2">
         <v>1005</v>
@@ -2627,15 +2662,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="121.5" spans="1:6">
+    <row r="11" s="2" customFormat="1" ht="135" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2">
         <v>1001</v>
@@ -2647,15 +2682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="108" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="121.5" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2667,15 +2702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="13" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2687,15 +2722,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="67.5" spans="1:6">
+    <row r="14" s="2" customFormat="1" ht="81" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -2754,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -2768,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>53</v>
@@ -2794,8 +2829,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2827,13 +2862,13 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="94.5" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2847,10 +2882,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -2867,16 +2902,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2">
         <v>214017</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
@@ -2884,16 +2919,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2">
         <v>214017</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2904,16 +2939,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>214026</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2924,10 +2959,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2941,16 +2976,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2">
         <v>214001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2961,16 +2996,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>214021</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -2981,7 +3016,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -3040,10 +3075,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3063,10 +3098,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3080,10 +3115,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3097,10 +3132,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3114,16 +3149,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2">
         <v>214028</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3173,10 +3208,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3196,16 +3231,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -3213,16 +3248,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
@@ -3230,10 +3265,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3247,16 +3282,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3267,16 +3302,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -3287,16 +3322,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -3307,16 +3342,16 @@
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3327,16 +3362,16 @@
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3347,16 +3382,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2">
         <v>214020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -3367,16 +3402,16 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -3387,10 +3422,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3404,16 +3439,16 @@
         <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2">
         <v>214005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -750,8 +750,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -769,7 +769,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,15 +791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,38 +804,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,19 +835,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,21 +874,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -927,13 +927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +945,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +975,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,13 +1011,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,91 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,17 +1151,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1173,6 +1162,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,15 +1194,17 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1239,10 +1239,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,133 +1251,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1836,7 +1836,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1997,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2159,7 +2159,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="2">
-        <v>214023</v>
+        <v>214030</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>35</v>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -748,9 +748,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -776,7 +776,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,21 +791,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +810,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -876,7 +877,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,17 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,7 +927,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +957,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,13 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,31 +1005,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,97 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,6 +1137,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1151,26 +1166,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1194,18 +1196,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,8 +1204,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,16 +1224,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,16 +1251,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,13 +1272,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1290,94 +1290,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1997,8 +1997,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="161">
   <si>
     <t>test_num</t>
   </si>
@@ -409,6 +409,9 @@
     <t>搜索数据盘-缺少token</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
@@ -451,6 +454,9 @@
     <t>云硬盘挂载路径不合法</t>
   </si>
   <si>
+    <t>PANACUBE4-1347</t>
+  </si>
+  <si>
     <t>加载数据盘-Path为特殊字符</t>
   </si>
   <si>
@@ -748,12 +754,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,7 +775,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,39 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,10 +839,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,6 +858,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,7 +897,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,8 +910,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,97 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,7 +958,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1012,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,19 +1042,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,25 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,32 +1165,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1188,24 +1175,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,8 +1197,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,16 +1264,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,112 +1285,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1387,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1403,6 +1416,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1869,10 +1885,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -1892,16 +1908,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2">
         <v>214016</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1909,16 +1925,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2">
         <v>214016</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="54" spans="1:5">
@@ -1926,10 +1942,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2">
         <v>1001</v>
@@ -1943,10 +1959,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
@@ -1960,16 +1976,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D7" s="2">
         <v>217002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="54" spans="1:4">
@@ -1977,10 +1993,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1997,8 +2013,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2827,20 +2843,21 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="37.5" customWidth="1"/>
     <col min="3" max="3" width="62.125" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2859,16 +2876,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="94.5" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2">
         <v>1001</v>
@@ -2882,10 +2902,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -2897,21 +2917,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:5">
+    <row r="4" s="2" customFormat="1" ht="94.5" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2">
         <v>214017</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="94.5" spans="1:6">
@@ -2919,16 +2942,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>214017</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2939,16 +2962,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>214026</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -2959,10 +2982,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2976,16 +2999,16 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2">
         <v>214001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2996,16 +3019,16 @@
         <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D9" s="2">
         <v>214021</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3016,7 +3039,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -3075,10 +3098,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3098,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
@@ -3115,10 +3138,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
@@ -3132,10 +3155,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3149,16 +3172,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D6" s="2">
         <v>214028</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3208,10 +3231,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="27" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>53</v>
@@ -3231,16 +3254,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2">
         <v>1001</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="67.5" spans="1:5">
@@ -3248,16 +3271,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2">
         <v>1001</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="67.5" spans="1:6">
@@ -3265,10 +3288,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3282,16 +3305,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2">
         <v>1001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -3302,16 +3325,16 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2">
         <v>214020</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -3322,16 +3345,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8" s="2">
         <v>214020</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -3342,16 +3365,16 @@
         <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9" s="2">
         <v>214020</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -3362,16 +3385,16 @@
         <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2">
         <v>214020</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -3382,16 +3405,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2">
         <v>214020</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -3402,16 +3425,16 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2">
         <v>1001</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -3422,10 +3445,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3439,16 +3462,16 @@
         <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2">
         <v>214005</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F14" s="2">
         <v>2</v>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getSysDiskList" sheetId="30" r:id="rId1"/>
@@ -754,9 +754,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -782,13 +782,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -797,13 +790,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,6 +833,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -855,9 +863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,11 +878,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,20 +896,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -919,7 +919,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,37 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +964,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,43 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,25 +1078,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,25 +1102,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,6 +1179,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1190,15 +1199,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,15 +1229,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1246,16 +1237,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,133 +1264,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2467,7 +2467,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -3198,8 +3198,8 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/datafiles/cloudDiskMagData.xlsx
+++ b/datafiles/cloudDiskMagData.xlsx
@@ -754,9 +754,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -781,8 +781,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,7 +820,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,9 +833,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,36 +889,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -864,47 +897,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,7 +919,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,7 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +952,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,43 +1000,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,19 +1042,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,85 +1108,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,6 +1149,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1160,6 +1178,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,47 +1230,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,25 +1246,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,133 +1264,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2846,7 +2846,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
